--- a/data/trans_camb/P25_8-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,93</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,77</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 1,47</t>
+          <t>-7,2; 1,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 6,51</t>
+          <t>-4,48; 5,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 3,14</t>
+          <t>-2,0; 8,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,87; -1,48</t>
+          <t>-4,7; 5,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 7,37</t>
+          <t>0,09; 9,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 1,67</t>
+          <t>-9,68; -1,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,59; -1,24</t>
+          <t>-4,48; 5,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,33</t>
+          <t>-0,21; 9,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,98</t>
+          <t>-8,26; 1,23</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 9,14</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; -1,27</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 3,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 7,63</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 2,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 7,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,08%</t>
+          <t>-18,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,87%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>-21,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-20,6%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,05%</t>
+          <t>-10,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>23,49%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-20,49%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,66%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-5,79%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,91; 9,22</t>
+          <t>-35,34; 8,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 42,31</t>
+          <t>-22,64; 35,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,3; 21,26</t>
+          <t>-9,27; 53,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-38,89; -7,01</t>
+          <t>-20,48; 28,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 35,14</t>
+          <t>0,39; 64,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 8,16</t>
+          <t>-36,8; -6,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,17; -6,38</t>
+          <t>-17,25; 24,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 28,16</t>
+          <t>-0,84; 46,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 4,96</t>
+          <t>-26,61; 4,99</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 47,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-33,21; -6,59</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 20,05</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,99; 38,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-18,22; 8,79</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>8,04; 45,43</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,02</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,94</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,97</t>
+          <t>10,51</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,2</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 4,34</t>
+          <t>-6,57; 3,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 5,22</t>
+          <t>-5,22; 5,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 11,82</t>
+          <t>-2,41; 8,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 1,28</t>
+          <t>-6,69; 5,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,55</t>
+          <t>-9,32; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 11,73</t>
+          <t>-8,4; 1,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 1,4</t>
+          <t>-1,45; 8,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 5,19</t>
+          <t>-4,69; 5,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 9,86</t>
+          <t>2,68; 17,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 14,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-5,87; 0,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,15; 5,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 5,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,13; 9,76</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 8,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>-13,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>-2,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>19,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-15,22%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>-8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,73%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>51,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-15,28%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,92%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>9,67%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25,98%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>9,39%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,59; 37,23</t>
+          <t>-37,04; 25,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,85; 41,97</t>
+          <t>-29,07; 39,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 93,44</t>
+          <t>-13,27; 65,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,53; 7,87</t>
+          <t>-33,26; 38,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,48; 48,77</t>
+          <t>-39,46; 37,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 65,63</t>
+          <t>-35,16; 8,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,34; 9,7</t>
+          <t>-6,13; 50,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 32,76</t>
+          <t>-20,3; 32,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 64,83</t>
+          <t>11,7; 96,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; 68,04</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-30,16; 6,22</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,47; 31,52</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,1; 37,12</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 55,91</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-13,2; 42,92</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-5,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-2,07</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8,22</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7,7</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,55</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 4,51</t>
+          <t>-15,72; 2,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 13,47</t>
+          <t>-7,61; 13,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-13,33; 7,92</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 8,69</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 20,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-9,34; 7,94</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,79; 20,36</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 18,89</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 3,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 13,93</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,39; 2,56</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,41; 13,07</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 10,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-27,04%</t>
+          <t>-34,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-12,2%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,51%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-3,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47,84%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-12,43%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>47,64%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-19,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>38,39%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-59,51; 50,93</t>
+          <t>-67,72; 21,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 113,45</t>
+          <t>-35,35; 106,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-58,72; 65,71</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-39,87; 75,8</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,74; 177,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-42,86; 63,82</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1,89; 165,18</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 145,23</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-40,5; 30,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>3,43; 105,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-46,88; 19,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-3,65; 91,95</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-20,58; 74,88</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,83</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-3,94</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,54</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,93</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 0,73</t>
+          <t>-6,28; 0,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 4,53</t>
+          <t>-3,11; 3,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,33</t>
+          <t>-1,16; 5,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; -0,8</t>
+          <t>-2,25; 5,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 6,92</t>
+          <t>-0,92; 6,73</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 3,75</t>
+          <t>-6,83; -1,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,71</t>
+          <t>-0,66; 6,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 4,84</t>
+          <t>0,12; 7,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 2,97</t>
+          <t>-1,69; 5,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1,16; 8,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; -1,24</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 3,78</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 5,62</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,9; 4,48</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 6,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>14,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-18,05%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-18,47%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>15,31%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>21,4%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 4,77</t>
+          <t>-33,26; 0,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 31,12</t>
+          <t>-17,39; 24,78</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 29,85</t>
+          <t>-6,94; 37,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,29; -3,64</t>
+          <t>-10,75; 30,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,2; 34,54</t>
+          <t>-4,51; 43,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,35; 19,06</t>
+          <t>-29,3; -6,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-26,0; -4,51</t>
+          <t>-2,77; 30,3</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 27,0</t>
+          <t>0,42; 34,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 17,14</t>
+          <t>-6,36; 24,72</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 44,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-27,63; -6,71</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 20,64</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>1,86; 31,3</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 21,94</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 37,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
